--- a/high-T-expts.xlsx
+++ b/high-T-expts.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekm/Git/papers/SI-mehta-beyond-eq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5529F45A-168D-214B-8E59-ED5316FA04DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA110E-D18E-D24C-AEF8-024A9DE5A872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{6B003078-D0E9-4374-8732-22FEB5B468A2}"/>
+    <workbookView xWindow="0" yWindow="4060" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{6B003078-D0E9-4374-8732-22FEB5B468A2}"/>
   </bookViews>
   <sheets>
     <sheet name="plasma-sweep" sheetId="1" r:id="rId1"/>
     <sheet name="eqb-data" sheetId="5" r:id="rId2"/>
     <sheet name="metal-sweep" sheetId="4" r:id="rId3"/>
-    <sheet name="WF" sheetId="2" r:id="rId4"/>
-    <sheet name="NH3-decomposition" sheetId="3" r:id="rId5"/>
+    <sheet name="NH3-decomposition" sheetId="3" r:id="rId4"/>
+    <sheet name="DBD-vs-Al2O3" sheetId="6" r:id="rId5"/>
+    <sheet name="WF" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Temperature</t>
   </si>
@@ -90,6 +91,18 @@
   <si>
     <t>T(K)</t>
   </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Pt/Al2O3</t>
+  </si>
+  <si>
+    <t>Ni/Al2O3</t>
+  </si>
+  <si>
+    <t>10 W DBD</t>
+  </si>
 </sst>
 </file>
 
@@ -127,12 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232F63BC-5C82-47BF-9E98-6C12E823B051}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4320,6 +4335,560 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F845058-C2EF-4908-8E56-C6AD081788EF}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>517.84129999999993</v>
+      </c>
+      <c r="B3">
+        <v>2.6412766470847302</v>
+      </c>
+      <c r="C3">
+        <v>6.2762816138391546</v>
+      </c>
+      <c r="D3">
+        <v>304.71805000000001</v>
+      </c>
+      <c r="E3">
+        <v>5.3401915317073181</v>
+      </c>
+      <c r="F3">
+        <v>4.2356729924818444</v>
+      </c>
+      <c r="G3">
+        <f>A7</f>
+        <v>769.99434999999994</v>
+      </c>
+      <c r="H3" s="1">
+        <v>79.292225879969607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>620.03774999999996</v>
+      </c>
+      <c r="B4">
+        <v>3.3690745722326527</v>
+      </c>
+      <c r="C4">
+        <v>0.6564400981571239</v>
+      </c>
+      <c r="D4">
+        <v>354.5324</v>
+      </c>
+      <c r="E4">
+        <v>6.9641094243902426</v>
+      </c>
+      <c r="F4">
+        <v>3.6638109418693374</v>
+      </c>
+      <c r="G4">
+        <f>A6</f>
+        <v>719.66644999999994</v>
+      </c>
+      <c r="H4" s="1">
+        <v>41.1496581413016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>669.33854999999994</v>
+      </c>
+      <c r="B5">
+        <v>10.591388578849559</v>
+      </c>
+      <c r="C5">
+        <v>0.56255281254106826</v>
+      </c>
+      <c r="D5">
+        <v>410.50934999999998</v>
+      </c>
+      <c r="E5">
+        <v>11.023904156097563</v>
+      </c>
+      <c r="F5">
+        <v>3.8869993455628915</v>
+      </c>
+      <c r="G5">
+        <f>A5</f>
+        <v>669.33854999999994</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.4960749556849962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>719.66644999999994</v>
+      </c>
+      <c r="B6">
+        <v>38.960947977676284</v>
+      </c>
+      <c r="C6">
+        <v>3.2950886271178121</v>
+      </c>
+      <c r="D6">
+        <v>462.37789999999995</v>
+      </c>
+      <c r="E6">
+        <v>14.20928156097561</v>
+      </c>
+      <c r="F6">
+        <v>2.8127082974470174</v>
+      </c>
+      <c r="G6">
+        <f>A4</f>
+        <v>620.03774999999996</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>769.99434999999994</v>
+      </c>
+      <c r="B7">
+        <v>81.972957996904441</v>
+      </c>
+      <c r="C7">
+        <v>18.09043295551178</v>
+      </c>
+      <c r="D7">
+        <v>515.7870999999999</v>
+      </c>
+      <c r="E7">
+        <v>42.502927921951212</v>
+      </c>
+      <c r="F7">
+        <v>4.681879534787579</v>
+      </c>
+      <c r="G7">
+        <f>D8</f>
+        <v>565.08789999999999</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>565.08789999999999</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>D7</f>
+        <v>515.7870999999999</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f>D6</f>
+        <v>462.37789999999995</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f>D5</f>
+        <v>410.50934999999998</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E1B826-FF4A-4046-A600-381201305FDF}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>190.35046499999999</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.5051850739218301</v>
+      </c>
+      <c r="C3">
+        <v>2.9732953520361584E-3</v>
+      </c>
+      <c r="D3">
+        <v>169.44897999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.49046729048668558</v>
+      </c>
+      <c r="F3">
+        <v>1.4868426966644624E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>255.93079999999998</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.72654506846372302</v>
+      </c>
+      <c r="C4">
+        <v>4.492137291362451E-2</v>
+      </c>
+      <c r="D4">
+        <v>209.40316999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.52410321480735478</v>
+      </c>
+      <c r="F4">
+        <v>6.8384512474170392E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>312.42129999999997</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.91691171314463205</v>
+      </c>
+      <c r="C5">
+        <v>2.6212335300905977E-2</v>
+      </c>
+      <c r="D5">
+        <v>261.57984999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.67330244095851</v>
+      </c>
+      <c r="F5">
+        <v>0.1545056756013804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>365.31694999999996</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.1043159829120737</v>
+      </c>
+      <c r="C6">
+        <v>5.1765161445244103E-2</v>
+      </c>
+      <c r="D6">
+        <v>312.42129999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.81403694716785524</v>
+      </c>
+      <c r="F6">
+        <v>0.11580657155802512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>419.23969999999997</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.3767556880409109</v>
+      </c>
+      <c r="C7">
+        <v>5.23746304214786E-2</v>
+      </c>
+      <c r="D7">
+        <v>363.77629999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.0176276532589914</v>
+      </c>
+      <c r="F7">
+        <v>2.9667041714160299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>465.97274999999996</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.5749421129827015</v>
+      </c>
+      <c r="C8">
+        <v>3.5511990489412969E-2</v>
+      </c>
+      <c r="D8">
+        <v>415.13129999999995</v>
+      </c>
+      <c r="E8">
+        <v>1.1602320698320745</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>521.94970000000001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.7046410825652372</v>
+      </c>
+      <c r="C9">
+        <v>5.0715907280836366E-2</v>
+      </c>
+      <c r="D9">
+        <v>469.05404999999996</v>
+      </c>
+      <c r="E9">
+        <v>1.3362630691717179</v>
+      </c>
+      <c r="F9">
+        <v>2.9624884413048776E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>570.22339999999997</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.7813144399705489</v>
+      </c>
+      <c r="C10">
+        <v>1.2774108001014434E-2</v>
+      </c>
+      <c r="D10">
+        <v>524.00389999999993</v>
+      </c>
+      <c r="E10">
+        <v>1.5268077196073016</v>
+      </c>
+      <c r="F10">
+        <v>3.8479595095987543E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>623.1190499999999</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.8760697444162351</v>
+      </c>
+      <c r="C11">
+        <v>5.2211401852174717E-2</v>
+      </c>
+      <c r="D11">
+        <v>574.84534999999994</v>
+      </c>
+      <c r="E11">
+        <v>1.6711776138601642</v>
+      </c>
+      <c r="F11">
+        <v>5.3245089819607162E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>679.096</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.8802439103118331</v>
+      </c>
+      <c r="C12">
+        <v>6.1561876123005052E-2</v>
+      </c>
+      <c r="D12">
+        <v>624.14614999999992</v>
+      </c>
+      <c r="E12">
+        <v>1.7360129059683302</v>
+      </c>
+      <c r="F12">
+        <v>8.8716112970707497E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>734.04584999999997</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.7464504320591556</v>
+      </c>
+      <c r="C13">
+        <v>0.10874513476805284</v>
+      </c>
+      <c r="D13">
+        <v>673.96049999999991</v>
+      </c>
+      <c r="E13">
+        <v>1.7276474201021061</v>
+      </c>
+      <c r="F13">
+        <v>3.2530457317770899E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>776.67049999999995</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.3222942774868363</v>
+      </c>
+      <c r="C14">
+        <v>5.204747818449186E-2</v>
+      </c>
+      <c r="D14">
+        <v>725.82904999999994</v>
+      </c>
+      <c r="E14">
+        <v>1.5205270729582856</v>
+      </c>
+      <c r="F14">
+        <v>5.3280933764330331E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>826.48484999999994</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.65091640987745691</v>
+      </c>
+      <c r="C15">
+        <v>2.3895460237334878E-2</v>
+      </c>
+      <c r="D15">
+        <v>776.67049999999995</v>
+      </c>
+      <c r="E15">
+        <v>1.0407007818145293</v>
+      </c>
+      <c r="F15">
+        <v>4.4495981877717639E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>830.5932499999999</v>
+      </c>
+      <c r="E16">
+        <v>0.36216521367037474</v>
+      </c>
+      <c r="F16">
+        <v>1.1901542990401413E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CF8617-F12C-4C7D-B2F5-0D3BD6E3A4ED}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4548,216 +5117,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F845058-C2EF-4908-8E56-C6AD081788EF}">
-  <dimension ref="A2:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>517.84129999999993</v>
-      </c>
-      <c r="B3">
-        <v>2.6412766470847302</v>
-      </c>
-      <c r="C3">
-        <v>6.2762816138391546</v>
-      </c>
-      <c r="D3">
-        <v>304.71805000000001</v>
-      </c>
-      <c r="E3">
-        <v>5.3401915317073181</v>
-      </c>
-      <c r="F3">
-        <v>4.2356729924818444</v>
-      </c>
-      <c r="G3">
-        <f>A7</f>
-        <v>769.99434999999994</v>
-      </c>
-      <c r="H3" s="1">
-        <v>79.292225879969607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>620.03774999999996</v>
-      </c>
-      <c r="B4">
-        <v>3.3690745722326527</v>
-      </c>
-      <c r="C4">
-        <v>0.6564400981571239</v>
-      </c>
-      <c r="D4">
-        <v>354.5324</v>
-      </c>
-      <c r="E4">
-        <v>6.9641094243902426</v>
-      </c>
-      <c r="F4">
-        <v>3.6638109418693374</v>
-      </c>
-      <c r="G4">
-        <f>A6</f>
-        <v>719.66644999999994</v>
-      </c>
-      <c r="H4" s="1">
-        <v>41.1496581413016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>669.33854999999994</v>
-      </c>
-      <c r="B5">
-        <v>10.591388578849559</v>
-      </c>
-      <c r="C5">
-        <v>0.56255281254106826</v>
-      </c>
-      <c r="D5">
-        <v>410.50934999999998</v>
-      </c>
-      <c r="E5">
-        <v>11.023904156097563</v>
-      </c>
-      <c r="F5">
-        <v>3.8869993455628915</v>
-      </c>
-      <c r="G5">
-        <f>A5</f>
-        <v>669.33854999999994</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9.4960749556849962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>719.66644999999994</v>
-      </c>
-      <c r="B6">
-        <v>38.960947977676284</v>
-      </c>
-      <c r="C6">
-        <v>3.2950886271178121</v>
-      </c>
-      <c r="D6">
-        <v>462.37789999999995</v>
-      </c>
-      <c r="E6">
-        <v>14.20928156097561</v>
-      </c>
-      <c r="F6">
-        <v>2.8127082974470174</v>
-      </c>
-      <c r="G6">
-        <f>A4</f>
-        <v>620.03774999999996</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>769.99434999999994</v>
-      </c>
-      <c r="B7">
-        <v>81.972957996904441</v>
-      </c>
-      <c r="C7">
-        <v>18.09043295551178</v>
-      </c>
-      <c r="D7">
-        <v>515.7870999999999</v>
-      </c>
-      <c r="E7">
-        <v>42.502927921951212</v>
-      </c>
-      <c r="F7">
-        <v>4.681879534787579</v>
-      </c>
-      <c r="G7">
-        <f>D8</f>
-        <v>565.08789999999999</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <v>565.08789999999999</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>D7</f>
-        <v>515.7870999999999</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9">
-        <f>D6</f>
-        <v>462.37789999999995</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G10">
-        <f>D5</f>
-        <v>410.50934999999998</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>